--- a/Supporting Files/Product Image Information.xlsx
+++ b/Supporting Files/Product Image Information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_83E3C44522BBBD587EFD8FAA2F76983C2C73F92C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D6013A6-0749-469A-BC51-DE8157E8536C}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_83E3C44522BBBD587EFD8FAA2F76983C2C73F92C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93F6146A-E557-48E6-8B59-99E399168B70}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,28 +28,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Foldername</t>
   </si>
   <si>
+    <t>GTIN</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>Lifestyles</t>
+  </si>
+  <si>
+    <t>Sugars per 100g</t>
+  </si>
+  <si>
+    <t>Fat per 100g</t>
+  </si>
+  <si>
+    <t>Saturates per 100g</t>
+  </si>
+  <si>
+    <t>Salt per 100g</t>
+  </si>
+  <si>
     <t>Bisto</t>
   </si>
   <si>
+    <t>010101010</t>
+  </si>
+  <si>
+    <t>Bisto Gravy Granules</t>
+  </si>
+  <si>
+    <t>Bisto Ltd</t>
+  </si>
+  <si>
     <t>Supernoodles</t>
+  </si>
+  <si>
+    <t>101010101</t>
+  </si>
+  <si>
+    <t>Chicken Flavoured Supernoodles</t>
+  </si>
+  <si>
+    <t>Supernoodles plc</t>
+  </si>
+  <si>
+    <t>ingredient1,ingredient2,ingredient3,ingredient4</t>
+  </si>
+  <si>
+    <t>No Added Salt,Non Alcoholic,Suitable for Vegans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,30 +448,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="H3" s="1">
         <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -420,17 +554,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100509435D2B9D9F84D90CAB4299F1145DE" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ae8c8c5abfea5bde7c316d8e701a8f0e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="495ee899-c4e0-464a-87ee-0cc6509eb8b1" xmlns:ns3="d7230179-1edc-4155-b4ce-9915a55c79e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cbe47f8b31aea1f0e0659b8baa531e6" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100509435D2B9D9F84D90CAB4299F1145DE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="01c53feb19386de07116ac913bc21fa2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="495ee899-c4e0-464a-87ee-0cc6509eb8b1" xmlns:ns3="d7230179-1edc-4155-b4ce-9915a55c79e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77b9eea53a7553c0df8667723de258bd" ns2:_="" ns3:_="">
     <xsd:import namespace="495ee899-c4e0-464a-87ee-0cc6509eb8b1"/>
     <xsd:import namespace="d7230179-1edc-4155-b4ce-9915a55c79e7"/>
     <xsd:element name="properties">
@@ -443,6 +568,13 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -461,6 +593,40 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="3c64e2da-d9c7-41d9-9754-6e4629ab60be" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="15" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -492,6 +658,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{62324acb-c840-4c94-828c-fdbb0ce5cf39}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d7230179-1edc-4155-b4ce-9915a55c79e7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -593,20 +770,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d7230179-1edc-4155-b4ce-9915a55c79e7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="495ee899-c4e0-464a-87ee-0cc6509eb8b1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9417A631-F026-42FB-B7BD-1EA6089502F4}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC69628-1CA4-4652-A250-DEC954AC4242}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E2EB491-2792-4310-B283-4C37A55A08B5}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9CDF879-9343-46A4-B56B-AB510A6E5A61}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC69628-1CA4-4652-A250-DEC954AC4242}"/>
 </file>